--- a/editGesProyect/Factor de Ponderación.xlsx
+++ b/editGesProyect/Factor de Ponderación.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6435" windowHeight="5835" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6435" windowHeight="5835" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Fig. III.C.2" sheetId="1" r:id="rId1"/>
     <sheet name="Fig. III.C.3" sheetId="2" r:id="rId2"/>
-    <sheet name="Fig. III. C" sheetId="3" r:id="rId3"/>
+    <sheet name="Fig. III.C .4" sheetId="3" r:id="rId3"/>
+    <sheet name="Fig. III.C.5 " sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="58">
   <si>
     <t>Parámetros de Medición</t>
   </si>
@@ -71,13 +72,231 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Funcionalidad</t>
+  </si>
+  <si>
+    <t>PF</t>
+  </si>
+  <si>
+    <t>Lenguaje</t>
+  </si>
+  <si>
+    <t>LDC por PF</t>
+  </si>
+  <si>
+    <t>LDC Totales</t>
+  </si>
+  <si>
+    <t>Hs por PF</t>
+  </si>
+  <si>
+    <t>Hs Totales</t>
+  </si>
+  <si>
+    <t>% Ajuste *</t>
+  </si>
+  <si>
+    <t>Puntos de Funcion</t>
+  </si>
+  <si>
+    <t>* "Ajuste" incluye el porcentaje de conocimiento de los programadores, las facilidades del framework y la utilizacion de modulos externos.</t>
+  </si>
+  <si>
+    <t>ESTIMACION</t>
+  </si>
+  <si>
+    <t>LDC TOTALES:</t>
+  </si>
+  <si>
+    <t>Tiempo:</t>
+  </si>
+  <si>
+    <t>Dias laborables</t>
+  </si>
+  <si>
+    <t>Horas por día</t>
+  </si>
+  <si>
+    <t>Personas</t>
+  </si>
+  <si>
+    <t>TOTAL (Dias * Hs * Personas)</t>
+  </si>
+  <si>
+    <t>COCOMO II</t>
+  </si>
+  <si>
+    <t>Un proyecto de software grande en tamaño y complejidad en el cual equipos con distintos niveles de experiencia debe satisfacer requerimientos rígidos.</t>
+  </si>
+  <si>
+    <t>Modelo Semiacoplado:</t>
+  </si>
+  <si>
+    <t>Formula Esfuerzo:</t>
+  </si>
+  <si>
+    <t>Formula Tiempo:</t>
+  </si>
+  <si>
+    <t>Formula Personas:</t>
+  </si>
+  <si>
+    <t>CONSTANTE</t>
+  </si>
+  <si>
+    <t>VALOR</t>
+  </si>
+  <si>
+    <t>SIGNIFICADO</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Practicas y Tipo de Soft()</t>
+  </si>
+  <si>
+    <t>Esfuerzo()</t>
+  </si>
+  <si>
+    <t>LC Totales</t>
+  </si>
+  <si>
+    <t>Esfuerzo</t>
+  </si>
+  <si>
+    <t>Meses</t>
+  </si>
+  <si>
+    <t>Personas:</t>
+  </si>
+  <si>
+    <t>Duracion del Proyecto:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> = a * (KLDC)^b  (Hombre-mes)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> = 2,5 * ( E ) ^ (Meses)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> =</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>T</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Fig. III.E.2 </t>
+  </si>
+  <si>
+    <t>Fig. III.E.2 Factor de ponderación</t>
+  </si>
+  <si>
+    <t>Fig. III.E.4 Estimación mediante puntos de función</t>
+  </si>
+  <si>
+    <t>Fig. III.E.5 Estimación mediante COCOMO II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PF=  *(  +  *(Fi))
+PF=  *(  +  *( ))
+PF= 
+PF=  *(  +  *(Fi))
+PF=  *(  +  *( ))
+PF= 
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +325,53 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -115,7 +381,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -138,17 +404,401 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -174,6 +824,243 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,10 +1341,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,97 +1353,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -565,126 +1461,1323 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
+      <c r="B2" s="9"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="10"/>
+      <c r="B3" s="9"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="10"/>
+      <c r="B4" s="9"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="10"/>
+      <c r="B5" s="9"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B6" s="10"/>
+      <c r="B6" s="9"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="10"/>
+      <c r="B7" s="9"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+      <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="B8" s="10"/>
+      <c r="B8" s="9"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="B9" s="10"/>
+      <c r="B9" s="9"/>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
-      <c r="B10" s="10"/>
+      <c r="B10" s="9"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+      <c r="A11" s="9">
         <v>10</v>
       </c>
-      <c r="B11" s="10"/>
+      <c r="B11" s="9"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
+      <c r="A12" s="9">
         <v>11</v>
       </c>
-      <c r="B12" s="10"/>
+      <c r="B12" s="9"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
+      <c r="A13" s="9">
         <v>12</v>
       </c>
-      <c r="B13" s="10"/>
+      <c r="B13" s="9"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
+      <c r="A14" s="9">
         <v>13</v>
       </c>
-      <c r="B14" s="10"/>
+      <c r="B14" s="9"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
+      <c r="A15" s="9">
         <v>14</v>
       </c>
-      <c r="B15" s="10"/>
+      <c r="B15" s="9"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="12"/>
+      <c r="B16" s="11"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="18"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="92" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="91"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="91"/>
+      <c r="B20" s="91"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="91"/>
+      <c r="B21" s="91"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A19:B21"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="4.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="10" max="10" width="5.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="56"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="24"/>
+      <c r="B2" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="37"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="24"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="37"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="24"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="37"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="24"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="37"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="24"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="37"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="24"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="37"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="24"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="37"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="23"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="22"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="23"/>
+      <c r="B10" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="22"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="23"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="22"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="23"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="22"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="23"/>
+      <c r="B13" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="22"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="23"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="22"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="23"/>
+      <c r="B15" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="22"/>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="23"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="22"/>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="23"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="22"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="23"/>
+      <c r="B18" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="22"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="23"/>
+      <c r="B19" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="22"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="23"/>
+      <c r="B20" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="22"/>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="23"/>
+      <c r="B21" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="22"/>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="19"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
+      <c r="L22" s="12"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="13"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="13"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="12"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="12"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="12"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="12"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="12"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="12"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="12"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="12"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="12"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="12"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="12"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="12"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="12"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="12"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="12"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="12"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B10:I11"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="J13:J21"/>
+    <mergeCell ref="A13:A21"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A9:J9"/>
+    <mergeCell ref="J2:J8"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="F15:I16"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B13:I14"/>
+    <mergeCell ref="B15:E16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.85546875" customWidth="1"/>
+    <col min="8" max="9" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="70"/>
+      <c r="B1" s="88" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="72"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="71"/>
+      <c r="B2" s="89" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="89"/>
+      <c r="D2" s="90" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="73"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="71"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="73"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="71"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="73"/>
+    </row>
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="71"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="73"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="71"/>
+      <c r="B6" s="86" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="87"/>
+      <c r="D6" s="81" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="73"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="71"/>
+      <c r="B7" s="86" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="87"/>
+      <c r="D7" s="81" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="73"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="71"/>
+      <c r="B8" s="86" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="87"/>
+      <c r="D8" s="81" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="83"/>
+      <c r="J8" s="73"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="71"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="73"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="71"/>
+      <c r="B10" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="83"/>
+      <c r="D10" s="79" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="81"/>
+      <c r="F10" s="79" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="80"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="73"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="71"/>
+      <c r="B11" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="83"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="79" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="73"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="71"/>
+      <c r="B12" s="83" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="83"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="79" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="73"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="71"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="73"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="71"/>
+      <c r="B14" s="82" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="82"/>
+      <c r="H14" s="82" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="82"/>
+      <c r="J14" s="73"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="71"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="73"/>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="71"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="73"/>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="71"/>
+      <c r="B17" s="76" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="73"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="71"/>
+      <c r="B18" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="61">
+        <v>4</v>
+      </c>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="73"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="71"/>
+      <c r="B19" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="73"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="67"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="69"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="38">
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B2:C5"/>
+    <mergeCell ref="D2:I5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="A1:A19"/>
+    <mergeCell ref="J1:J19"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F11:I11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/editGesProyect/Factor de Ponderación.xlsx
+++ b/editGesProyect/Factor de Ponderación.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6435" windowHeight="5835" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6435" windowHeight="5835"/>
   </bookViews>
   <sheets>
     <sheet name="Fig. III.C.2" sheetId="1" r:id="rId1"/>
     <sheet name="Fig. III.C.3" sheetId="2" r:id="rId2"/>
     <sheet name="Fig. III.C .4" sheetId="3" r:id="rId3"/>
     <sheet name="Fig. III.C.5 " sheetId="4" r:id="rId4"/>
+    <sheet name="cocomo II" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="58">
   <si>
     <t>Parámetros de Medición</t>
   </si>
@@ -128,9 +129,6 @@
     <t>COCOMO II</t>
   </si>
   <si>
-    <t>Un proyecto de software grande en tamaño y complejidad en el cual equipos con distintos niveles de experiencia debe satisfacer requerimientos rígidos.</t>
-  </si>
-  <si>
     <t>Modelo Semiacoplado:</t>
   </si>
   <si>
@@ -177,27 +175,6 @@
   </si>
   <si>
     <t>Duracion del Proyecto:</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>E</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> = a * (KLDC)^b  (Hombre-mes)</t>
-    </r>
   </si>
   <si>
     <r>
@@ -291,12 +268,36 @@
 PF= 
 </t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> = a * (LDC)^b  (Hombre-mes)</t>
+    </r>
+  </si>
+  <si>
+    <t>Un proyecto de software medio en tamaño y complejidad en el cual equipos con distintos niveles de experiencia debe satisfacer requerimientos rígidos.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -372,6 +373,19 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -795,7 +809,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -833,12 +847,120 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -848,14 +970,179 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -863,203 +1150,23 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1343,8 +1450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1353,13 +1460,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1442,12 +1549,12 @@
       <c r="E9" s="6"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
+      <c r="A11" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1463,11 +1570,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A1:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
@@ -1569,28 +1679,28 @@
       <c r="B16" s="11"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="18"/>
+      <c r="A17" s="123" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="123"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="92" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="91"/>
+    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="21"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="91"/>
-      <c r="B20" s="91"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="91"/>
-      <c r="B21" s="91"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1606,317 +1716,321 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J24" sqref="A1:J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
     <col min="3" max="3" width="4.140625" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
-    <col min="10" max="10" width="5.140625" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" customWidth="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="10" max="10" width="2.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="56"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="42"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="14" t="s">
+      <c r="A2" s="58"/>
+      <c r="B2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="37"/>
+      <c r="J2" s="33"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="37"/>
+      <c r="A3" s="58"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="33"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="37"/>
+      <c r="A4" s="58"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="33"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="37"/>
+      <c r="A5" s="58"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="37"/>
+      <c r="A6" s="58"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="33"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="37"/>
+      <c r="A7" s="58"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="33"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="37"/>
+      <c r="A8" s="58"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="33"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="22"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="32"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
-      <c r="B10" s="57" t="s">
+      <c r="A10" s="31"/>
+      <c r="B10" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="22"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="32"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="22"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="32"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="22"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="32"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
-      <c r="B13" s="44" t="s">
+      <c r="A13" s="31"/>
+      <c r="B13" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="22"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="32"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="22"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="32"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
-      <c r="B15" s="50" t="s">
+      <c r="A15" s="31"/>
+      <c r="B15" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="38" t="s">
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="22"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="32"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
-      <c r="B16" s="52"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="22"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="32"/>
     </row>
     <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="23"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="22"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="32"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
-      <c r="B18" s="25" t="s">
+      <c r="A18" s="31"/>
+      <c r="B18" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="22"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="32"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
-      <c r="B19" s="27" t="s">
+      <c r="A19" s="31"/>
+      <c r="B19" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="22"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="32"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
-      <c r="B20" s="27" t="s">
+      <c r="A20" s="31"/>
+      <c r="B20" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="22"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="32"/>
     </row>
     <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="23"/>
-      <c r="B21" s="29" t="s">
+      <c r="A21" s="31"/>
+      <c r="B21" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="22"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="32"/>
     </row>
     <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="19"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="21"/>
+      <c r="A22" s="55"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="57"/>
       <c r="L22" s="12"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -1935,12 +2049,12 @@
       <c r="A24" s="13"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
-      <c r="D24" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
+      <c r="D24" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
@@ -2379,8 +2493,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="B10:I11"/>
     <mergeCell ref="D24:G24"/>
     <mergeCell ref="B18:E18"/>
     <mergeCell ref="B19:E19"/>
@@ -2393,16 +2505,18 @@
     <mergeCell ref="A22:J22"/>
     <mergeCell ref="J13:J21"/>
     <mergeCell ref="A13:A21"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A9:J9"/>
     <mergeCell ref="J2:J8"/>
     <mergeCell ref="J10:J11"/>
     <mergeCell ref="F15:I16"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B10:I11"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="B13:I14"/>
     <mergeCell ref="B15:E16"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A9:J9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -2414,302 +2528,307 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" customWidth="1"/>
-    <col min="8" max="9" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" customWidth="1"/>
+    <col min="9" max="9" width="4.85546875" customWidth="1"/>
+    <col min="10" max="10" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="70"/>
-      <c r="B1" s="88" t="s">
+      <c r="A1" s="71"/>
+      <c r="B1" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="72"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="73"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71"/>
-      <c r="B2" s="89" t="s">
+      <c r="A2" s="72"/>
+      <c r="B2" s="90" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="90"/>
+      <c r="D2" s="91" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="74"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="72"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="74"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="72"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="74"/>
+    </row>
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="72"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="74"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="72"/>
+      <c r="B6" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="89"/>
-      <c r="D2" s="90" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="73"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="71"/>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="73"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="71"/>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="73"/>
-    </row>
-    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="73"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="71"/>
-      <c r="B6" s="86" t="s">
+      <c r="C6" s="88"/>
+      <c r="D6" s="82" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="74"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="72"/>
+      <c r="B7" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="87"/>
-      <c r="D6" s="81" t="s">
+      <c r="C7" s="88"/>
+      <c r="D7" s="82" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="74"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="72"/>
+      <c r="B8" s="87" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="88"/>
+      <c r="D8" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="83"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="73"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="71"/>
-      <c r="B7" s="86" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="87"/>
-      <c r="D7" s="81" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="73"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="71"/>
-      <c r="B8" s="86" t="s">
+      <c r="E8" s="84"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="74"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="72"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="74"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="72"/>
+      <c r="B10" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="87"/>
-      <c r="D8" s="81" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="83"/>
-      <c r="J8" s="73"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="71"/>
-      <c r="B9" s="75"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="73"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="71"/>
-      <c r="B10" s="83" t="s">
+      <c r="C10" s="84"/>
+      <c r="D10" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="83"/>
-      <c r="D10" s="79" t="s">
+      <c r="E10" s="82"/>
+      <c r="F10" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="81"/>
-      <c r="F10" s="79" t="s">
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="74"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="72"/>
+      <c r="B11" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="80"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="73"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="71"/>
-      <c r="B11" s="83" t="s">
+      <c r="C11" s="84"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="81"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="74"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="72"/>
+      <c r="B12" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="83"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="79" t="s">
+      <c r="C12" s="84"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="80"/>
-      <c r="H11" s="80"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="73"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="71"/>
-      <c r="B12" s="83" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="83"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="79" t="s">
+      <c r="G12" s="81"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="74"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="72"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="74"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="72"/>
+      <c r="B14" s="83" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="80"/>
-      <c r="H12" s="80"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="73"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="71"/>
-      <c r="B13" s="75"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="73"/>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="71"/>
-      <c r="B14" s="82" t="s">
+      <c r="C14" s="83"/>
+      <c r="D14" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82" t="s">
+      <c r="E14" s="83"/>
+      <c r="F14" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82" t="s">
+      <c r="G14" s="83"/>
+      <c r="H14" s="83" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="83"/>
+      <c r="J14" s="74"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="72"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="74"/>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="72"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="74"/>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="72"/>
+      <c r="B17" s="77" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="78"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="74"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="72"/>
+      <c r="B18" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="82"/>
-      <c r="H14" s="82" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" s="82"/>
-      <c r="J14" s="73"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="71"/>
-      <c r="B15" s="74"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="74"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="73"/>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="71"/>
-      <c r="B16" s="75"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="73"/>
-    </row>
-    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="71"/>
-      <c r="B17" s="76" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="78"/>
-      <c r="J17" s="73"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="71"/>
-      <c r="B18" s="59" t="s">
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="62">
+        <v>4</v>
+      </c>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="74"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="72"/>
+      <c r="B19" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="61">
-        <v>4</v>
-      </c>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="73"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="71"/>
-      <c r="B19" s="63" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="73"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="74"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="67"/>
-      <c r="B20" s="68"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="69"/>
+      <c r="A20" s="68"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="70"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
@@ -2727,12 +2846,12 @@
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
-      <c r="D22" s="58" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
+      <c r="D22" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
@@ -2780,4 +2899,737 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J47"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection sqref="A1:J47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" customWidth="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="10" max="10" width="2.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="42"/>
+    </row>
+    <row r="2" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="120"/>
+      <c r="B2" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="121"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="120"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="121"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="120"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="121"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="120"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="121"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="120"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="121"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="120"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="121"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="120"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="121"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="99"/>
+      <c r="B9" s="100"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="100"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="100"/>
+      <c r="I9" s="100"/>
+      <c r="J9" s="101"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="99"/>
+      <c r="B10" s="122" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="122"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="122"/>
+      <c r="F10" s="122"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="101"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="99"/>
+      <c r="B11" s="122"/>
+      <c r="C11" s="122"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="122"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="122"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="122"/>
+      <c r="J11" s="101"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="99"/>
+      <c r="B12" s="100"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="101"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="99"/>
+      <c r="B13" s="102" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="104"/>
+      <c r="J13" s="101"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="99"/>
+      <c r="B14" s="105"/>
+      <c r="C14" s="106"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="106"/>
+      <c r="F14" s="106"/>
+      <c r="G14" s="106"/>
+      <c r="H14" s="106"/>
+      <c r="I14" s="107"/>
+      <c r="J14" s="101"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="99"/>
+      <c r="B15" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="106"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="110" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="111"/>
+      <c r="H15" s="111"/>
+      <c r="I15" s="112"/>
+      <c r="J15" s="101"/>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="99"/>
+      <c r="B16" s="108"/>
+      <c r="C16" s="109"/>
+      <c r="D16" s="109"/>
+      <c r="E16" s="109"/>
+      <c r="F16" s="113"/>
+      <c r="G16" s="114"/>
+      <c r="H16" s="114"/>
+      <c r="I16" s="115"/>
+      <c r="J16" s="101"/>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="99"/>
+      <c r="B17" s="100"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="100"/>
+      <c r="G17" s="100"/>
+      <c r="H17" s="100"/>
+      <c r="I17" s="100"/>
+      <c r="J17" s="101"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="99"/>
+      <c r="B18" s="116" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="117"/>
+      <c r="D18" s="117"/>
+      <c r="E18" s="117"/>
+      <c r="F18" s="118"/>
+      <c r="G18" s="118"/>
+      <c r="H18" s="118"/>
+      <c r="I18" s="119"/>
+      <c r="J18" s="101"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="99"/>
+      <c r="B19" s="94" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="95"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="92"/>
+      <c r="H19" s="92"/>
+      <c r="I19" s="93"/>
+      <c r="J19" s="101"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="99"/>
+      <c r="B20" s="94" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="95"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="92">
+        <v>4</v>
+      </c>
+      <c r="G20" s="92"/>
+      <c r="H20" s="92"/>
+      <c r="I20" s="93"/>
+      <c r="J20" s="101"/>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="99"/>
+      <c r="B21" s="96" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="97"/>
+      <c r="D21" s="97"/>
+      <c r="E21" s="97"/>
+      <c r="F21" s="97"/>
+      <c r="G21" s="97"/>
+      <c r="H21" s="97"/>
+      <c r="I21" s="98"/>
+      <c r="J21" s="101"/>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="55"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="57"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="71"/>
+      <c r="B26" s="89" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="89"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="89"/>
+      <c r="F26" s="89"/>
+      <c r="G26" s="89"/>
+      <c r="H26" s="89"/>
+      <c r="I26" s="89"/>
+      <c r="J26" s="73"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="72"/>
+      <c r="B27" s="90" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="90"/>
+      <c r="D27" s="91" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="91"/>
+      <c r="F27" s="91"/>
+      <c r="G27" s="91"/>
+      <c r="H27" s="91"/>
+      <c r="I27" s="91"/>
+      <c r="J27" s="74"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="72"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="90"/>
+      <c r="D28" s="91"/>
+      <c r="E28" s="91"/>
+      <c r="F28" s="91"/>
+      <c r="G28" s="91"/>
+      <c r="H28" s="91"/>
+      <c r="I28" s="91"/>
+      <c r="J28" s="74"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="72"/>
+      <c r="B29" s="90"/>
+      <c r="C29" s="90"/>
+      <c r="D29" s="91"/>
+      <c r="E29" s="91"/>
+      <c r="F29" s="91"/>
+      <c r="G29" s="91"/>
+      <c r="H29" s="91"/>
+      <c r="I29" s="91"/>
+      <c r="J29" s="74"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="72"/>
+      <c r="B30" s="90"/>
+      <c r="C30" s="90"/>
+      <c r="D30" s="91"/>
+      <c r="E30" s="91"/>
+      <c r="F30" s="91"/>
+      <c r="G30" s="91"/>
+      <c r="H30" s="91"/>
+      <c r="I30" s="91"/>
+      <c r="J30" s="74"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="72"/>
+      <c r="B31" s="87" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="88"/>
+      <c r="D31" s="82" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="84"/>
+      <c r="F31" s="84"/>
+      <c r="G31" s="84"/>
+      <c r="H31" s="84"/>
+      <c r="I31" s="84"/>
+      <c r="J31" s="74"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="72"/>
+      <c r="B32" s="87" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="88"/>
+      <c r="D32" s="82" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" s="84"/>
+      <c r="F32" s="84"/>
+      <c r="G32" s="84"/>
+      <c r="H32" s="84"/>
+      <c r="I32" s="84"/>
+      <c r="J32" s="74"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="72"/>
+      <c r="B33" s="87" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="88"/>
+      <c r="D33" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" s="84"/>
+      <c r="F33" s="84"/>
+      <c r="G33" s="84"/>
+      <c r="H33" s="84"/>
+      <c r="I33" s="84"/>
+      <c r="J33" s="74"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="72"/>
+      <c r="B34" s="76"/>
+      <c r="C34" s="76"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="76"/>
+      <c r="G34" s="76"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="76"/>
+      <c r="J34" s="74"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="72"/>
+      <c r="B35" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="84"/>
+      <c r="D35" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" s="82"/>
+      <c r="F35" s="80" t="s">
+        <v>39</v>
+      </c>
+      <c r="G35" s="81"/>
+      <c r="H35" s="81"/>
+      <c r="I35" s="82"/>
+      <c r="J35" s="74"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="72"/>
+      <c r="B36" s="84" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="84"/>
+      <c r="D36" s="85"/>
+      <c r="E36" s="86"/>
+      <c r="F36" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="G36" s="81"/>
+      <c r="H36" s="81"/>
+      <c r="I36" s="82"/>
+      <c r="J36" s="74"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="72"/>
+      <c r="B37" s="84" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="84"/>
+      <c r="D37" s="85"/>
+      <c r="E37" s="86"/>
+      <c r="F37" s="80" t="s">
+        <v>43</v>
+      </c>
+      <c r="G37" s="81"/>
+      <c r="H37" s="81"/>
+      <c r="I37" s="82"/>
+      <c r="J37" s="74"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="72"/>
+      <c r="B38" s="76"/>
+      <c r="C38" s="76"/>
+      <c r="D38" s="76"/>
+      <c r="E38" s="76"/>
+      <c r="F38" s="76"/>
+      <c r="G38" s="76"/>
+      <c r="H38" s="76"/>
+      <c r="I38" s="76"/>
+      <c r="J38" s="74"/>
+    </row>
+    <row r="39" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="72"/>
+      <c r="B39" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="83"/>
+      <c r="D39" s="83" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" s="83"/>
+      <c r="F39" s="83" t="s">
+        <v>46</v>
+      </c>
+      <c r="G39" s="83"/>
+      <c r="H39" s="83" t="s">
+        <v>30</v>
+      </c>
+      <c r="I39" s="83"/>
+      <c r="J39" s="74"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="72"/>
+      <c r="B40" s="75"/>
+      <c r="C40" s="75"/>
+      <c r="D40" s="75"/>
+      <c r="E40" s="75"/>
+      <c r="F40" s="75"/>
+      <c r="G40" s="75"/>
+      <c r="H40" s="75"/>
+      <c r="I40" s="75"/>
+      <c r="J40" s="74"/>
+    </row>
+    <row r="41" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="72"/>
+      <c r="B41" s="76"/>
+      <c r="C41" s="76"/>
+      <c r="D41" s="76"/>
+      <c r="E41" s="76"/>
+      <c r="F41" s="76"/>
+      <c r="G41" s="76"/>
+      <c r="H41" s="76"/>
+      <c r="I41" s="76"/>
+      <c r="J41" s="74"/>
+    </row>
+    <row r="42" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="72"/>
+      <c r="B42" s="77" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" s="78"/>
+      <c r="D42" s="78"/>
+      <c r="E42" s="78"/>
+      <c r="F42" s="78"/>
+      <c r="G42" s="78"/>
+      <c r="H42" s="78"/>
+      <c r="I42" s="79"/>
+      <c r="J42" s="74"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="72"/>
+      <c r="B43" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="61"/>
+      <c r="D43" s="61"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="62">
+        <v>4</v>
+      </c>
+      <c r="G43" s="62"/>
+      <c r="H43" s="62"/>
+      <c r="I43" s="63"/>
+      <c r="J43" s="74"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="72"/>
+      <c r="B44" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="65"/>
+      <c r="D44" s="65"/>
+      <c r="E44" s="65"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="66"/>
+      <c r="H44" s="66"/>
+      <c r="I44" s="67"/>
+      <c r="J44" s="74"/>
+    </row>
+    <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="68"/>
+      <c r="B45" s="69"/>
+      <c r="C45" s="69"/>
+      <c r="D45" s="69"/>
+      <c r="E45" s="69"/>
+      <c r="F45" s="69"/>
+      <c r="G45" s="69"/>
+      <c r="H45" s="69"/>
+      <c r="I45" s="69"/>
+      <c r="J45" s="70"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="12"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="12"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="E47" s="59"/>
+      <c r="F47" s="59"/>
+      <c r="G47" s="59"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="62">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="J2:J8"/>
+    <mergeCell ref="A9:J9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A13:A21"/>
+    <mergeCell ref="B13:I14"/>
+    <mergeCell ref="J13:J21"/>
+    <mergeCell ref="B15:E16"/>
+    <mergeCell ref="F15:I16"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="A26:A44"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="J26:J44"/>
+    <mergeCell ref="B27:C30"/>
+    <mergeCell ref="D27:I30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:I32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="B38:I38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="B41:I41"/>
+    <mergeCell ref="B42:I42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="F44:I44"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>